--- a/Projet_3(Back-end)/Budget/devis.xlsx
+++ b/Projet_3(Back-end)/Budget/devis.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="936" yWindow="0" windowWidth="23040" windowHeight="9672"/>
+    <workbookView xWindow="1872" yWindow="0" windowWidth="23040" windowHeight="9672"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Print_Area" localSheetId="0">Feuil1!$A$7:$H$67</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$A$1:$K$89</definedName>
+    <definedName name="Print_Area" localSheetId="0">Feuil1!$A$7:$H$70</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$A$1:$K$92</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Devis</t>
   </si>
@@ -151,6 +151,15 @@
   </si>
   <si>
     <t>75058 Paris</t>
+  </si>
+  <si>
+    <t>Reflexion et élaboration charte graphique</t>
+  </si>
+  <si>
+    <t>Intégration charte graphique</t>
+  </si>
+  <si>
+    <t>Retouche graphique</t>
   </si>
 </sst>
 </file>
@@ -353,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -405,7 +414,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -845,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M70"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="55" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -891,11 +899,11 @@
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="42"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="41"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
@@ -1103,12 +1111,12 @@
       <c r="L22" s="6"/>
     </row>
     <row r="23" spans="1:12" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="45"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="44"/>
       <c r="E23" s="16" t="s">
         <v>7</v>
       </c>
@@ -1123,12 +1131,12 @@
       <c r="L23" s="6"/>
     </row>
     <row r="24" spans="1:12" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="48"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="47"/>
       <c r="E24" s="18"/>
       <c r="F24" s="19"/>
       <c r="G24" s="6"/>
@@ -1142,11 +1150,11 @@
       <c r="C25" s="21"/>
       <c r="D25" s="22"/>
       <c r="E25" s="23">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="F25" s="24">
-        <f>E25*1.196</f>
-        <v>239.2</v>
+        <f>E25*1.2</f>
+        <v>348</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -1159,11 +1167,11 @@
       <c r="C26" s="21"/>
       <c r="D26" s="22"/>
       <c r="E26" s="23">
-        <v>380</v>
+        <v>570</v>
       </c>
       <c r="F26" s="24">
-        <f>E26*1.196</f>
-        <v>454.47999999999996</v>
+        <f t="shared" ref="F26:F38" si="0">E26*1.2</f>
+        <v>684</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -1176,11 +1184,11 @@
       <c r="C27" s="21"/>
       <c r="D27" s="22"/>
       <c r="E27" s="23">
-        <v>380</v>
+        <v>570</v>
       </c>
       <c r="F27" s="24">
-        <f>E27*1.196</f>
-        <v>454.47999999999996</v>
+        <f t="shared" si="0"/>
+        <v>684</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -1193,7 +1201,7 @@
       <c r="C28" s="26"/>
       <c r="D28" s="27"/>
       <c r="E28" s="28"/>
-      <c r="F28" s="29"/>
+      <c r="F28" s="28"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
@@ -1205,81 +1213,81 @@
       <c r="C29" s="21"/>
       <c r="D29" s="22"/>
       <c r="E29" s="23">
-        <v>310</v>
+        <v>540</v>
       </c>
       <c r="F29" s="24">
-        <f>E29*1.196</f>
-        <v>370.76</v>
+        <f t="shared" si="0"/>
+        <v>648</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:12" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="20" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
       <c r="D30" s="22"/>
       <c r="E30" s="23">
-        <v>80</v>
+        <v>860</v>
       </c>
       <c r="F30" s="24">
-        <f>E30*1.196</f>
-        <v>95.679999999999993</v>
+        <f t="shared" si="0"/>
+        <v>1032</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:12" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="29"/>
+      <c r="A31" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="23">
+        <v>120</v>
+      </c>
+      <c r="F31" s="24">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:12" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="23">
-        <v>460</v>
-      </c>
-      <c r="F32" s="24">
-        <f t="shared" ref="F32:F35" si="0">E32*1.196</f>
-        <v>550.16</v>
-      </c>
+      <c r="A32" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="20" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
       <c r="D33" s="22"/>
       <c r="E33" s="23">
-        <v>320</v>
+        <v>1050</v>
       </c>
       <c r="F33" s="24">
-        <f t="shared" si="0"/>
-        <v>382.71999999999997</v>
+        <f>E33*1.2</f>
+        <v>1260</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="20" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -1289,179 +1297,204 @@
       </c>
       <c r="F34" s="24">
         <f t="shared" si="0"/>
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="51"/>
+      <c r="A35" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="22"/>
       <c r="E35" s="23">
-        <v>120</v>
+        <v>550</v>
       </c>
       <c r="F35" s="24">
         <f t="shared" si="0"/>
-        <v>143.51999999999998</v>
+        <v>660</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="23">
+        <v>430</v>
+      </c>
+      <c r="F36" s="24">
+        <f t="shared" si="0"/>
+        <v>516</v>
+      </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="23">
+        <v>510</v>
+      </c>
+      <c r="F37" s="24">
+        <f t="shared" si="0"/>
+        <v>612</v>
+      </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
+      <c r="A38" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="23">
+        <v>260</v>
+      </c>
+      <c r="F38" s="24">
+        <f t="shared" si="0"/>
+        <v>312</v>
+      </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="32">
-        <f>SUM(E25:E35)</f>
-        <v>2500</v>
-      </c>
-      <c r="B39" s="33">
-        <v>0.2</v>
-      </c>
-      <c r="C39" s="34">
-        <f>A39*B39</f>
-        <v>500</v>
-      </c>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
+    <row r="39" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="F40" s="32">
-        <f>A39</f>
-        <v>2500</v>
-      </c>
+    <row r="40" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F41" s="34">
-        <f>C39</f>
-        <v>500</v>
-      </c>
+      <c r="A41" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="F42" s="32">
-        <f>F41+F40</f>
-        <v>3000</v>
-      </c>
+      <c r="A42" s="31">
+        <f>SUM(E25:E38)</f>
+        <v>6000</v>
+      </c>
+      <c r="B42" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="C42" s="33">
+        <f>A42*B42</f>
+        <v>1200</v>
+      </c>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="6"/>
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="D43" s="38"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="31">
+        <f>A42</f>
+        <v>6000</v>
+      </c>
+      <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
     <row r="44" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="39"/>
-      <c r="B44" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="D44" s="39"/>
-      <c r="E44" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="F44" s="35">
-        <f>F42</f>
-        <v>3000</v>
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" s="33">
+        <f>C42</f>
+        <v>1200</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
+    <row r="45" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" s="31">
+        <f>F44+F43</f>
+        <v>7200</v>
+      </c>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
+    <row r="46" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="37"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
+    <row r="47" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="38"/>
+      <c r="B47" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="38"/>
+      <c r="E47" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" s="34">
+        <f>F45</f>
+        <v>7200</v>
+      </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
+      <c r="B48" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -1471,89 +1504,85 @@
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="F53" s="36"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
     </row>
-    <row r="54" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
-      <c r="D54" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E54" s="37"/>
-      <c r="F54" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="F56" s="35"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
+      <c r="D57" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" s="36"/>
+      <c r="F57" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
     </row>
@@ -1627,36 +1656,66 @@
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
     </row>
-    <row r="65" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
     </row>
-    <row r="66" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
     </row>
-    <row r="67" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
     </row>
-    <row r="68" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
     </row>
-    <row r="69" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
     </row>
-    <row r="70" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A38:D38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="57" orientation="portrait" r:id="rId1"/>
